--- a/Income/SHW_inc.xlsx
+++ b/Income/SHW_inc.xlsx
@@ -1981,16 +1981,16 @@
         <v>0.4544</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.4515</v>
+        <v>0.4562</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>0.45</v>
+        <v>0.4547</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>0.4459</v>
+        <v>0.4505</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>0.4442</v>
+        <v>0.4489</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0.4383</v>
@@ -2235,7 +2235,7 @@
         <v>0.1372</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.1285</v>
+        <v>0.1286</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0.121</v>
@@ -2489,16 +2489,16 @@
         <v>0.1893</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.1982</v>
+        <v>0.1777</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.16</v>
+        <v>0.1393</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.138</v>
+        <v>0.1176</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.1319</v>
+        <v>0.1113</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.1044</v>
@@ -3915,16 +3915,16 @@
         <v>0.209</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.2011</v>
+        <v>0.2067</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.1888</v>
+        <v>0.1946</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.1775</v>
+        <v>0.1831</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.1684</v>
+        <v>0.174</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.1552</v>
@@ -4042,16 +4042,16 @@
         <v>0.2059</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.2147</v>
+        <v>0.1943</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.1794</v>
+        <v>0.1586</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.1594</v>
+        <v>0.1389</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.1503</v>
+        <v>0.1297</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.1218</v>
